--- a/combined_cal_data_vsa_correct.xlsx
+++ b/combined_cal_data_vsa_correct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LINER\Documents\PycharmProjects\20250926_EVM_DPD_DDPD_GMP_Power_Servo_with_test_select\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2ACB2F0-FEC2-4ABD-AD52-37BF27927067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CFB6DA-2698-4CB9-88A6-ACE40722E31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="32040" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Calibration" sheetId="1" r:id="rId1"/>
@@ -126,10 +126,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J1:J82"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +490,7 @@
         <v>15.819000000000001</v>
       </c>
       <c r="E2">
-        <v>1.5880000000000001</v>
+        <v>1.7247626010000001</v>
       </c>
       <c r="F2">
         <v>10.186999999999999</v>
@@ -500,7 +500,7 @@
       </c>
       <c r="J2">
         <f>E2+H2</f>
-        <v>1.6384837962300001</v>
+        <v>1.7752463972300001</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
         <v>15.942</v>
       </c>
       <c r="E3">
-        <v>1.603</v>
+        <v>1.739762601</v>
       </c>
       <c r="F3">
         <v>10.311999999999999</v>
@@ -527,7 +527,7 @@
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" si="0">E3+H3</f>
-        <v>1.6586218803099999</v>
+        <v>1.7953844813099999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -544,7 +544,7 @@
         <v>16.05</v>
       </c>
       <c r="E4">
-        <v>1.615</v>
+        <v>1.751762601</v>
       </c>
       <c r="F4">
         <v>10.519</v>
@@ -554,7 +554,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>1.69783757327</v>
+        <v>1.83460017427</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
         <v>16.123999999999999</v>
       </c>
       <c r="E5">
-        <v>1.583</v>
+        <v>1.719762601</v>
       </c>
       <c r="F5">
         <v>10.755000000000001</v>
@@ -581,7 +581,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>1.66663520516</v>
+        <v>1.80339780616</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>16.170000000000002</v>
       </c>
       <c r="E6">
-        <v>1.577</v>
+        <v>1.713762601</v>
       </c>
       <c r="F6">
         <v>11.042</v>
@@ -608,7 +608,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>1.6394822981399999</v>
+        <v>1.7762448991399999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
         <v>16.170000000000002</v>
       </c>
       <c r="E7">
-        <v>1.58</v>
+        <v>1.7167626010000001</v>
       </c>
       <c r="F7">
         <v>11.314</v>
@@ -635,7 +635,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>1.6707124931300001</v>
+        <v>1.8074750941300002</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>16.125</v>
       </c>
       <c r="E8">
-        <v>1.5289999999999999</v>
+        <v>1.665762601</v>
       </c>
       <c r="F8">
         <v>11.442</v>
@@ -662,7 +662,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>1.5562517593499998</v>
+        <v>1.6930143603499999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>16.055</v>
       </c>
       <c r="E9">
-        <v>1.605</v>
+        <v>1.741762601</v>
       </c>
       <c r="F9">
         <v>11.582000000000001</v>
@@ -689,7 +689,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>1.6695577590899999</v>
+        <v>1.80632036009</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -706,7 +706,7 @@
         <v>15.952</v>
       </c>
       <c r="E10">
-        <v>1.6160000000000001</v>
+        <v>1.7527626010000001</v>
       </c>
       <c r="F10">
         <v>11.516</v>
@@ -716,7 +716,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>1.6901819344600002</v>
+        <v>1.8269445354600002</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
         <v>15.826000000000001</v>
       </c>
       <c r="E11">
-        <v>1.5820000000000001</v>
+        <v>1.7187626010000001</v>
       </c>
       <c r="F11">
         <v>11.281000000000001</v>
@@ -743,7 +743,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>1.6327185529300001</v>
+        <v>1.7694811539300002</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>15.7</v>
       </c>
       <c r="E12">
-        <v>1.669</v>
+        <v>1.8057626010000001</v>
       </c>
       <c r="F12">
         <v>11.09</v>
@@ -770,7 +770,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>1.6529666815700002</v>
+        <v>1.7897292825700002</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>15.579000000000001</v>
       </c>
       <c r="E13">
-        <v>1.6759999999999999</v>
+        <v>1.812762601</v>
       </c>
       <c r="F13">
         <v>10.792999999999999</v>
@@ -797,7 +797,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>1.6806430130099999</v>
+        <v>1.8174056140099999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
         <v>15.467000000000001</v>
       </c>
       <c r="E14">
-        <v>1.6839999999999999</v>
+        <v>1.820762601</v>
       </c>
       <c r="F14">
         <v>10.523</v>
@@ -824,7 +824,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>1.7207988732899999</v>
+        <v>1.85756147429</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
         <v>15.382999999999999</v>
       </c>
       <c r="E15">
-        <v>1.748</v>
+        <v>1.884762601</v>
       </c>
       <c r="F15">
         <v>10.372999999999999</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>1.7680798639299999</v>
+        <v>1.90484246493</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>15.326000000000001</v>
       </c>
       <c r="E16">
-        <v>1.7569999999999999</v>
+        <v>1.8937626009999999</v>
       </c>
       <c r="F16">
         <v>10.257999999999999</v>
@@ -878,7 +878,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>1.8414640190599998</v>
+        <v>1.9782266200599998</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>15.297000000000001</v>
       </c>
       <c r="E17">
-        <v>1.7949999999999999</v>
+        <v>1.931762601</v>
       </c>
       <c r="F17">
         <v>10.271000000000001</v>
@@ -905,7 +905,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>1.84070112484</v>
+        <v>1.9774637258400001</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -922,7 +922,7 @@
         <v>15.305999999999999</v>
       </c>
       <c r="E18">
-        <v>1.8</v>
+        <v>1.9367626010000001</v>
       </c>
       <c r="F18">
         <v>10.359</v>
@@ -932,7 +932,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>1.8190075346300001</v>
+        <v>1.9557701356300001</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>15.345000000000001</v>
       </c>
       <c r="E19">
-        <v>1.7689999999999999</v>
+        <v>1.9057626009999999</v>
       </c>
       <c r="F19">
         <v>10.502000000000001</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>1.78324713921</v>
+        <v>1.92000974021</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -976,7 +976,7 @@
         <v>15.414999999999999</v>
       </c>
       <c r="E20">
-        <v>1.784</v>
+        <v>1.9207626010000001</v>
       </c>
       <c r="F20">
         <v>10.763</v>
@@ -986,7 +986,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>1.8669747491299999</v>
+        <v>2.0037373501300002</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
         <v>15.513999999999999</v>
       </c>
       <c r="E21">
-        <v>1.806</v>
+        <v>1.9427626010000001</v>
       </c>
       <c r="F21">
         <v>11.071</v>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>1.8833715236700002</v>
+        <v>2.0201341246700002</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
         <v>15.627000000000001</v>
       </c>
       <c r="E22">
-        <v>1.7350000000000001</v>
+        <v>1.8717626010000001</v>
       </c>
       <c r="F22">
         <v>11.282</v>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>1.7462585513500002</v>
+        <v>1.8830211523500002</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1057,7 +1057,7 @@
         <v>15.756</v>
       </c>
       <c r="E23">
-        <v>1.7949999999999999</v>
+        <v>1.931762601</v>
       </c>
       <c r="F23">
         <v>11.567</v>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>1.8775014061699999</v>
+        <v>2.01426400717</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1084,7 +1084,7 @@
         <v>15.888</v>
       </c>
       <c r="E24">
-        <v>1.837</v>
+        <v>1.973762601</v>
       </c>
       <c r="F24">
         <v>11.724</v>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>1.8444125277249999</v>
+        <v>1.9811751287249999</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
         <v>16.010000000000002</v>
       </c>
       <c r="E25">
-        <v>1.8380000000000001</v>
+        <v>1.9747626010000001</v>
       </c>
       <c r="F25">
         <v>11.706</v>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>1.82673410661</v>
+        <v>1.9634967076100001</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
         <v>16.109000000000002</v>
       </c>
       <c r="E26">
-        <v>1.85</v>
+        <v>1.9867626010000001</v>
       </c>
       <c r="F26">
         <v>11.564</v>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>1.9237036086000001</v>
+        <v>2.0604662095999999</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
         <v>16.183</v>
       </c>
       <c r="E27">
-        <v>1.87</v>
+        <v>2.0067626010000001</v>
       </c>
       <c r="F27">
         <v>11.334</v>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>1.8607387499650001</v>
+        <v>1.9975013509650001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1192,7 +1192,7 @@
         <v>16.216000000000001</v>
       </c>
       <c r="E28">
-        <v>1.9039999999999999</v>
+        <v>2.040762601</v>
       </c>
       <c r="F28">
         <v>11.068</v>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>1.83742717552</v>
+        <v>1.9741897765200001</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
         <v>16.209</v>
       </c>
       <c r="E29">
-        <v>1.9339999999999999</v>
+        <v>2.0707626010000002</v>
       </c>
       <c r="F29">
         <v>10.801</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>1.96477983914</v>
+        <v>2.1015424401400002</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1246,7 +1246,7 @@
         <v>16.170000000000002</v>
       </c>
       <c r="E30">
-        <v>1.966</v>
+        <v>2.1027626010000002</v>
       </c>
       <c r="F30">
         <v>10.59</v>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>1.9203338963600001</v>
+        <v>2.0570964973600003</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1273,7 +1273,7 @@
         <v>16.091999999999999</v>
       </c>
       <c r="E31">
-        <v>1.978</v>
+        <v>2.1147626009999998</v>
       </c>
       <c r="F31">
         <v>10.442</v>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>1.9600063868099999</v>
+        <v>2.09676898781</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>15.987</v>
       </c>
       <c r="E32">
-        <v>2.012</v>
+        <v>2.148762601</v>
       </c>
       <c r="F32">
         <v>10.411</v>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
-        <v>2.1004507234199998</v>
+        <v>2.2372133244199999</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1327,7 +1327,7 @@
         <v>15.872</v>
       </c>
       <c r="E33">
-        <v>2.04</v>
+        <v>2.1767626010000001</v>
       </c>
       <c r="F33">
         <v>10.468</v>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>2.0897662510199999</v>
+        <v>2.2265288520199999</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
         <v>15.749000000000001</v>
       </c>
       <c r="E34">
-        <v>2.008</v>
+        <v>2.144762601</v>
       </c>
       <c r="F34">
         <v>10.561</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>1.9686865043699999</v>
+        <v>2.10544910537</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
         <v>15.634</v>
       </c>
       <c r="E35">
-        <v>2.02</v>
+        <v>2.1567626010000001</v>
       </c>
       <c r="F35">
         <v>10.781000000000001</v>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
-        <v>1.98511326897</v>
+        <v>2.1218758699700002</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1408,7 +1408,7 @@
         <v>15.532</v>
       </c>
       <c r="E36">
-        <v>2.0310000000000001</v>
+        <v>2.1677626010000002</v>
       </c>
       <c r="F36">
         <v>11.047000000000001</v>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
-        <v>2.0487600563999999</v>
+        <v>2.1855226574</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1435,7 +1435,7 @@
         <v>15.46</v>
       </c>
       <c r="E37">
-        <v>1.986</v>
+        <v>2.1227626009999998</v>
       </c>
       <c r="F37">
         <v>11.278</v>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
-        <v>2.0188485269599998</v>
+        <v>2.1556111279599999</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1462,7 +1462,7 @@
         <v>15.414</v>
       </c>
       <c r="E38">
-        <v>2.0030000000000001</v>
+        <v>2.1397626010000002</v>
       </c>
       <c r="F38">
         <v>11.53</v>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>2.0895582085600002</v>
+        <v>2.2263208095600002</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1489,7 +1489,7 @@
         <v>15.393000000000001</v>
       </c>
       <c r="E39">
-        <v>1.992</v>
+        <v>2.128762601</v>
       </c>
       <c r="F39">
         <v>11.672000000000001</v>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>2.1455872832999998</v>
+        <v>2.2823498842999999</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1516,7 +1516,7 @@
         <v>15.407999999999999</v>
       </c>
       <c r="E40">
-        <v>1.992</v>
+        <v>2.128762601</v>
       </c>
       <c r="F40">
         <v>11.712</v>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>2.0128021831899998</v>
+        <v>2.1495647841899999</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>15.451000000000001</v>
       </c>
       <c r="E41">
-        <v>2.0299999999999998</v>
+        <v>2.1667626009999998</v>
       </c>
       <c r="F41">
         <v>11.635</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
-        <v>1.9354800532399998</v>
+        <v>2.0722426542399996</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
         <v>15.521000000000001</v>
       </c>
       <c r="E42">
-        <v>2.0579999999999998</v>
+        <v>2.1947626009999999</v>
       </c>
       <c r="F42">
         <v>11.459</v>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
-        <v>2.01036161066</v>
+        <v>2.14712421166</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>15.61</v>
       </c>
       <c r="E43">
-        <v>2.0739999999999998</v>
+        <v>2.2107626009999999</v>
       </c>
       <c r="F43">
         <v>11.201000000000001</v>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
-        <v>2.1985707115999999</v>
+        <v>2.3353333126</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1624,7 +1624,7 @@
         <v>15.718</v>
       </c>
       <c r="E44">
-        <v>2.0910000000000002</v>
+        <v>2.2277626010000002</v>
       </c>
       <c r="F44">
         <v>10.929</v>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="J44">
         <f t="shared" si="0"/>
-        <v>2.0687919849500003</v>
+        <v>2.2055545859500003</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1651,7 +1651,7 @@
         <v>15.831</v>
       </c>
       <c r="E45">
-        <v>2.1989999999999998</v>
+        <v>2.3357626009999999</v>
       </c>
       <c r="F45">
         <v>10.804</v>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
-        <v>2.1388264352799999</v>
+        <v>2.27558903628</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1678,7 +1678,7 @@
         <v>15.949</v>
       </c>
       <c r="E46">
-        <v>2.1989999999999998</v>
+        <v>2.3357626009999999</v>
       </c>
       <c r="F46">
         <v>10.603</v>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="J46">
         <f t="shared" si="0"/>
-        <v>2.19407232391</v>
+        <v>2.33083492491</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1705,7 +1705,7 @@
         <v>16.058</v>
       </c>
       <c r="E47">
-        <v>2.1659999999999999</v>
+        <v>2.302762601</v>
       </c>
       <c r="F47">
         <v>10.468</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
-        <v>2.1778569245499999</v>
+        <v>2.3146195255499999</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -1732,7 +1732,7 @@
         <v>16.151</v>
       </c>
       <c r="E48">
-        <v>2.2570000000000001</v>
+        <v>2.3937626010000002</v>
       </c>
       <c r="F48">
         <v>10.532999999999999</v>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
-        <v>2.2173617492000002</v>
+        <v>2.3541243502000002</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
         <v>16.212</v>
       </c>
       <c r="E49">
-        <v>2.2149999999999999</v>
+        <v>2.3517626009999999</v>
       </c>
       <c r="F49">
         <v>10.544</v>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
-        <v>2.2300445945599998</v>
+        <v>2.3668071955599999</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -1786,7 +1786,7 @@
         <v>16.238</v>
       </c>
       <c r="E50">
-        <v>2.198</v>
+        <v>2.334762601</v>
       </c>
       <c r="F50">
         <v>10.670999999999999</v>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
-        <v>2.1968254528358999</v>
+        <v>2.3335880538359</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>16.225999999999999</v>
       </c>
       <c r="E51">
-        <v>2.2000000000000002</v>
+        <v>2.3367626010000002</v>
       </c>
       <c r="F51">
         <v>10.882999999999999</v>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="J51">
         <f t="shared" si="0"/>
-        <v>2.24478663353</v>
+        <v>2.38154923453</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -1840,7 +1840,7 @@
         <v>16.184000000000001</v>
       </c>
       <c r="E52">
-        <v>2.2050000000000001</v>
+        <v>2.3417626010000001</v>
       </c>
       <c r="F52">
         <v>11.115</v>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="J52">
         <f t="shared" si="0"/>
-        <v>2.2341556567500001</v>
+        <v>2.3709182577500001</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -1867,7 +1867,7 @@
         <v>16.106000000000002</v>
       </c>
       <c r="E53">
-        <v>2.2029999999999998</v>
+        <v>2.3397626009999999</v>
       </c>
       <c r="F53">
         <v>11.343999999999999</v>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="J53">
         <f t="shared" si="0"/>
-        <v>2.2113324208139997</v>
+        <v>2.3480950218139998</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -1894,7 +1894,7 @@
         <v>16.007999999999999</v>
       </c>
       <c r="E54">
-        <v>2.1739999999999999</v>
+        <v>2.310762601</v>
       </c>
       <c r="F54">
         <v>11.472</v>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="J54">
         <f t="shared" si="0"/>
-        <v>2.1556990335499999</v>
+        <v>2.29246163455</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -1921,7 +1921,7 @@
         <v>15.896000000000001</v>
       </c>
       <c r="E55">
-        <v>2.1890000000000001</v>
+        <v>2.3257626010000001</v>
       </c>
       <c r="F55">
         <v>11.555</v>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="J55">
         <f t="shared" si="0"/>
-        <v>2.2393885515200003</v>
+        <v>2.3761511525200003</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
         <v>15.784000000000001</v>
       </c>
       <c r="E56">
-        <v>2.1779999999999999</v>
+        <v>2.314762601</v>
       </c>
       <c r="F56">
         <v>11.504</v>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>2.2712320039099998</v>
+        <v>2.4079946049099998</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -1975,7 +1975,7 @@
         <v>15.682</v>
       </c>
       <c r="E57">
-        <v>2.2909999999999999</v>
+        <v>2.427762601</v>
       </c>
       <c r="F57">
         <v>11.465999999999999</v>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="J57">
         <f t="shared" si="0"/>
-        <v>2.2958746626240001</v>
+        <v>2.4326372636240001</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2002,7 +2002,7 @@
         <v>15.587</v>
       </c>
       <c r="E58">
-        <v>2.2240000000000002</v>
+        <v>2.3607626010000002</v>
       </c>
       <c r="F58">
         <v>11.195</v>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
-        <v>2.2380031172500003</v>
+        <v>2.3747657182500004</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2029,7 +2029,7 @@
         <v>15.512</v>
       </c>
       <c r="E59">
-        <v>2.2069999999999999</v>
+        <v>2.3437626009999999</v>
       </c>
       <c r="F59">
         <v>10.919</v>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="J59">
         <f t="shared" si="0"/>
-        <v>2.1561174938400001</v>
+        <v>2.2928800948400001</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,7 @@
         <v>15.46</v>
       </c>
       <c r="E60">
-        <v>2.343</v>
+        <v>2.479762601</v>
       </c>
       <c r="F60">
         <v>10.821999999999999</v>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="J60">
         <f t="shared" si="0"/>
-        <v>2.3908738164700001</v>
+        <v>2.5276364174700001</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2083,7 +2083,7 @@
         <v>15.423999999999999</v>
       </c>
       <c r="E61">
-        <v>2.3519999999999999</v>
+        <v>2.4887626009999999</v>
       </c>
       <c r="F61">
         <v>10.624000000000001</v>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="J61">
         <f t="shared" si="0"/>
-        <v>2.3444008994765997</v>
+        <v>2.4811635004765997</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2110,7 +2110,7 @@
         <v>15.425000000000001</v>
       </c>
       <c r="E62">
-        <v>2.37</v>
+        <v>2.5067626010000001</v>
       </c>
       <c r="F62">
         <v>10.513</v>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="J62">
         <f t="shared" si="0"/>
-        <v>2.32682532251</v>
+        <v>2.46358792351</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2137,7 +2137,7 @@
         <v>15.445</v>
       </c>
       <c r="E63">
-        <v>2.415</v>
+        <v>2.5517626010000001</v>
       </c>
       <c r="F63">
         <v>10.505000000000001</v>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="J63">
         <f t="shared" si="0"/>
-        <v>2.4198693923870001</v>
+        <v>2.5566319933870001</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2164,7 +2164,7 @@
         <v>15.497</v>
       </c>
       <c r="E64">
-        <v>2.4409999999999998</v>
+        <v>2.5777626009999999</v>
       </c>
       <c r="F64">
         <v>10.573</v>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="J64">
         <f t="shared" si="0"/>
-        <v>2.7707788727999998</v>
+        <v>2.9075414737999998</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2191,7 +2191,7 @@
         <v>15.574999999999999</v>
       </c>
       <c r="E65">
-        <v>2.4319999999999999</v>
+        <v>2.568762601</v>
       </c>
       <c r="F65">
         <v>10.68</v>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="J65">
         <f t="shared" si="0"/>
-        <v>2.6148606409999999</v>
+        <v>2.751623242</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
         <v>15.673</v>
       </c>
       <c r="E66">
-        <v>2.4319999999999999</v>
+        <v>2.568762601</v>
       </c>
       <c r="F66">
         <v>10.881</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="J66">
         <f t="shared" si="0"/>
-        <v>2.5843345257000001</v>
+        <v>2.7210971267000001</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2245,7 +2245,7 @@
         <v>15.789</v>
       </c>
       <c r="E67">
-        <v>2.4129999999999998</v>
+        <v>2.5497626009999999</v>
       </c>
       <c r="F67">
         <v>11.102</v>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="J67">
         <f t="shared" ref="J67:J82" si="1">E67+H67</f>
-        <v>2.5671409818999997</v>
+        <v>2.7039035828999998</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>15.901</v>
       </c>
       <c r="E68">
-        <v>2.3620000000000001</v>
+        <v>2.4987626010000001</v>
       </c>
       <c r="F68">
         <v>11.29</v>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="J68">
         <f t="shared" si="1"/>
-        <v>2.4475936934</v>
+        <v>2.5843562944</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2299,7 +2299,7 @@
         <v>16.012</v>
       </c>
       <c r="E69">
-        <v>2.4129999999999998</v>
+        <v>2.5497626009999999</v>
       </c>
       <c r="F69">
         <v>11.574</v>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="J69">
         <f t="shared" si="1"/>
-        <v>2.5853386400999998</v>
+        <v>2.7221012410999998</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -2326,7 +2326,7 @@
         <v>16.109000000000002</v>
       </c>
       <c r="E70">
-        <v>2.4129999999999998</v>
+        <v>2.5497626009999999</v>
       </c>
       <c r="F70">
         <v>11.696999999999999</v>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="J70">
         <f t="shared" si="1"/>
-        <v>2.5519596187999998</v>
+        <v>2.6887222197999998</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -2353,7 +2353,7 @@
         <v>16.184999999999999</v>
       </c>
       <c r="E71">
-        <v>2.387</v>
+        <v>2.523762601</v>
       </c>
       <c r="F71">
         <v>11.728999999999999</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="J71">
         <f t="shared" si="1"/>
-        <v>2.5514894947000002</v>
+        <v>2.6882520957000002</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -2380,7 +2380,7 @@
         <v>16.224</v>
       </c>
       <c r="E72">
-        <v>2.411</v>
+        <v>2.5477626010000001</v>
       </c>
       <c r="F72">
         <v>11.672000000000001</v>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="J72">
         <f t="shared" si="1"/>
-        <v>2.5813201328000002</v>
+        <v>2.7180827338000002</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -2407,7 +2407,7 @@
         <v>16.239000000000001</v>
       </c>
       <c r="E73">
-        <v>2.4740000000000002</v>
+        <v>2.6107626010000002</v>
       </c>
       <c r="F73">
         <v>11.566000000000001</v>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J73">
         <f t="shared" si="1"/>
-        <v>2.6591293584000004</v>
+        <v>2.7958919594000005</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -2434,7 +2434,7 @@
         <v>16.222000000000001</v>
       </c>
       <c r="E74">
-        <v>2.484</v>
+        <v>2.620762601</v>
       </c>
       <c r="F74">
         <v>11.347</v>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="J74">
         <f t="shared" si="1"/>
-        <v>2.6963444582</v>
+        <v>2.8331070592000001</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -2461,7 +2461,7 @@
         <v>16.175999999999998</v>
       </c>
       <c r="E75">
-        <v>2.4769999999999999</v>
+        <v>2.6137626009999999</v>
       </c>
       <c r="F75">
         <v>11.09</v>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="J75">
         <f t="shared" si="1"/>
-        <v>2.5840228168999997</v>
+        <v>2.7207854178999997</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>16.109000000000002</v>
       </c>
       <c r="E76">
-        <v>2.524</v>
+        <v>2.6607626010000001</v>
       </c>
       <c r="F76">
         <v>10.911</v>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="J76">
         <f t="shared" si="1"/>
-        <v>2.6822460193</v>
+        <v>2.8190086203</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -2515,7 +2515,7 @@
         <v>16.021999999999998</v>
       </c>
       <c r="E77">
-        <v>2.5590000000000002</v>
+        <v>2.6957626010000002</v>
       </c>
       <c r="F77">
         <v>10.78</v>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="J77">
         <f t="shared" si="1"/>
-        <v>2.6878703581000001</v>
+        <v>2.8246329591000001</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -2542,7 +2542,7 @@
         <v>15.914</v>
       </c>
       <c r="E78">
-        <v>2.556</v>
+        <v>2.6927626010000001</v>
       </c>
       <c r="F78">
         <v>10.683999999999999</v>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="J78">
         <f t="shared" si="1"/>
-        <v>2.7332143242</v>
+        <v>2.8699769252</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -2569,7 +2569,7 @@
         <v>15.805</v>
       </c>
       <c r="E79">
-        <v>2.5720000000000001</v>
+        <v>2.7087626010000001</v>
       </c>
       <c r="F79">
         <v>10.696999999999999</v>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="J79">
         <f t="shared" si="1"/>
-        <v>2.7355281550999999</v>
+        <v>2.8722907561</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -2596,7 +2596,7 @@
         <v>15.693</v>
       </c>
       <c r="E80">
-        <v>2.5619999999999998</v>
+        <v>2.6987626009999999</v>
       </c>
       <c r="F80">
         <v>10.772</v>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="J80">
         <f t="shared" si="1"/>
-        <v>2.7539368351999998</v>
+        <v>2.8906994361999998</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -2623,7 +2623,7 @@
         <v>15.590999999999999</v>
       </c>
       <c r="E81">
-        <v>2.5710000000000002</v>
+        <v>2.7077626010000002</v>
       </c>
       <c r="F81">
         <v>10.939</v>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="J81">
         <f t="shared" si="1"/>
-        <v>2.7657501017000001</v>
+        <v>2.9025127027000002</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -2650,7 +2650,7 @@
         <v>15.506</v>
       </c>
       <c r="E82">
-        <v>2.5870000000000002</v>
+        <v>2.7237626010000002</v>
       </c>
       <c r="F82">
         <v>11.170999999999999</v>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="J82">
         <f t="shared" si="1"/>
-        <v>2.7365483840000002</v>
+        <v>2.8733109850000003</v>
       </c>
     </row>
   </sheetData>
